--- a/Assets/TableData/Tables.xlsx
+++ b/Assets/TableData/Tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\esock\OneDrive\문서\HumanWeapon\Assets\TableData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F58D996-1EA9-4D49-BD69-F09E6A428437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C40167D7-8E1A-4C05-955D-D8C7482E4DF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3840" yWindow="3840" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Define" sheetId="3" r:id="rId1"/>
@@ -1256,8 +1256,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1564,8 +1564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AC6F769-DB9D-4549-9A9C-117157F18C59}">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1579,6 +1579,7 @@
     <col min="7" max="7" width="6.5" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="5.3984375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.8984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="19.2" x14ac:dyDescent="0.4">
@@ -1735,16 +1736,16 @@
         <v>17</v>
       </c>
       <c r="E6" s="4">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F6" s="4">
         <v>2</v>
       </c>
       <c r="G6" s="4">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="H6" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I6" s="4">
         <v>10</v>

--- a/Assets/TableData/Tables.xlsx
+++ b/Assets/TableData/Tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\esock\OneDrive\문서\HumanWeapon\Assets\TableData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C40167D7-8E1A-4C05-955D-D8C7482E4DF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{535EBF65-708B-4765-947D-C0566BD5DED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Define" sheetId="3" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="34">
   <si>
     <t>string</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -172,6 +172,18 @@
   </si>
   <si>
     <t>Monster</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어력%</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>크뎀%</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>크리%</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1564,8 +1576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AC6F769-DB9D-4549-9A9C-117157F18C59}">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1627,10 +1639,10 @@
         <v>22</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>28</v>
@@ -1742,7 +1754,7 @@
         <v>2</v>
       </c>
       <c r="G6" s="4">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="H6" s="4">
         <v>5</v>
@@ -1751,7 +1763,7 @@
         <v>10</v>
       </c>
       <c r="J6" s="4">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="K6" s="17">
         <v>10</v>
@@ -1849,8 +1861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19:I20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.5" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1899,7 +1911,7 @@
         <v>21</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>14</v>
@@ -2039,7 +2051,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G6" s="4">
         <v>10</v>
@@ -2058,9 +2070,8 @@
       </c>
     </row>
     <row r="7" spans="1:17" s="13" customFormat="1" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A7" s="3" t="str">
-        <f t="shared" ref="A7:A12" si="0">$B$1&amp;"_"&amp;B7</f>
-        <v>Monster_2</v>
+      <c r="A7" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="B7" s="3">
         <v>2</v>
@@ -2069,14 +2080,14 @@
         <v>1</v>
       </c>
       <c r="D7" s="3" t="str">
-        <f t="shared" ref="D7:D12" si="1">A7</f>
-        <v>Monster_2</v>
+        <f t="shared" ref="D7:D12" si="0">A7</f>
+        <v>GDE_IGNORE</v>
       </c>
       <c r="E7" s="4">
         <v>5</v>
       </c>
       <c r="F7" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G7" s="4">
         <v>20</v>
@@ -2095,9 +2106,8 @@
       </c>
     </row>
     <row r="8" spans="1:17" s="13" customFormat="1" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A8" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Monster_3</v>
+      <c r="A8" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="B8" s="3">
         <v>3</v>
@@ -2106,14 +2116,14 @@
         <v>2</v>
       </c>
       <c r="D8" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Monster_3</v>
+        <f t="shared" si="0"/>
+        <v>GDE_IGNORE</v>
       </c>
       <c r="E8" s="4">
         <v>10</v>
       </c>
       <c r="F8" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G8" s="4">
         <v>50</v>
@@ -2132,9 +2142,8 @@
       </c>
     </row>
     <row r="9" spans="1:17" s="13" customFormat="1" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A9" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Monster_4</v>
+      <c r="A9" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="B9" s="3">
         <v>4</v>
@@ -2143,14 +2152,14 @@
         <v>3</v>
       </c>
       <c r="D9" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Monster_4</v>
+        <f t="shared" si="0"/>
+        <v>GDE_IGNORE</v>
       </c>
       <c r="E9" s="4">
         <v>20</v>
       </c>
       <c r="F9" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G9" s="4">
         <v>100</v>
@@ -2169,9 +2178,8 @@
       </c>
     </row>
     <row r="10" spans="1:17" s="13" customFormat="1" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A10" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Monster_5</v>
+      <c r="A10" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="B10" s="3">
         <v>5</v>
@@ -2180,14 +2188,14 @@
         <v>4</v>
       </c>
       <c r="D10" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Monster_5</v>
+        <f t="shared" si="0"/>
+        <v>GDE_IGNORE</v>
       </c>
       <c r="E10" s="4">
         <v>30</v>
       </c>
       <c r="F10" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G10" s="4">
         <v>150</v>
@@ -2206,9 +2214,8 @@
       </c>
     </row>
     <row r="11" spans="1:17" s="13" customFormat="1" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A11" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Monster_6</v>
+      <c r="A11" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="B11" s="3">
         <v>6</v>
@@ -2217,14 +2224,14 @@
         <v>5</v>
       </c>
       <c r="D11" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Monster_6</v>
+        <f t="shared" si="0"/>
+        <v>GDE_IGNORE</v>
       </c>
       <c r="E11" s="4">
         <v>50</v>
       </c>
       <c r="F11" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G11" s="4">
         <v>200</v>
@@ -2243,9 +2250,8 @@
       </c>
     </row>
     <row r="12" spans="1:17" s="13" customFormat="1" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A12" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Monster_7</v>
+      <c r="A12" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="B12" s="3">
         <v>7</v>
@@ -2254,14 +2260,14 @@
         <v>6</v>
       </c>
       <c r="D12" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Monster_7</v>
+        <f t="shared" si="0"/>
+        <v>GDE_IGNORE</v>
       </c>
       <c r="E12" s="4">
         <v>100</v>
       </c>
       <c r="F12" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G12" s="4">
         <v>250</v>

--- a/Assets/TableData/Tables.xlsx
+++ b/Assets/TableData/Tables.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\esock\OneDrive\문서\HumanWeapon\Assets\TableData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\HumanWeapon\Assets\TableData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{535EBF65-708B-4765-947D-C0566BD5DED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24627CEF-D114-4A74-9333-678843412FC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3840" yWindow="3840" windowWidth="23040" windowHeight="12204" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Define" sheetId="3" r:id="rId1"/>
@@ -1577,7 +1577,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1754,7 +1754,7 @@
         <v>2</v>
       </c>
       <c r="G6" s="4">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="H6" s="4">
         <v>5</v>
@@ -1862,7 +1862,7 @@
   <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.5" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2048,13 +2048,13 @@
         <v>Monster_1</v>
       </c>
       <c r="E6" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F6" s="4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G6" s="4">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H6" s="4">
         <v>0</v>

--- a/Assets/TableData/Tables.xlsx
+++ b/Assets/TableData/Tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\HumanWeapon\Assets\TableData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24627CEF-D114-4A74-9333-678843412FC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62A89C10-43CC-4DCD-8D07-1ECA9C72BC73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3840" yWindow="3840" windowWidth="23040" windowHeight="12204" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3840" yWindow="3840" windowWidth="23040" windowHeight="12204" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Define" sheetId="3" r:id="rId1"/>
@@ -1576,8 +1576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AC6F769-DB9D-4549-9A9C-117157F18C59}">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1757,7 +1757,7 @@
         <v>20</v>
       </c>
       <c r="H6" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I6" s="4">
         <v>10</v>
@@ -1861,7 +1861,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>

--- a/Assets/TableData/Tables.xlsx
+++ b/Assets/TableData/Tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\HumanWeapon\Assets\TableData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62A89C10-43CC-4DCD-8D07-1ECA9C72BC73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4C2F175-EF81-4C6D-8449-86D3E7FB84A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3840" yWindow="3840" windowWidth="23040" windowHeight="12204" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,8 @@
     <sheet name="Define" sheetId="3" r:id="rId1"/>
     <sheet name="Hero" sheetId="10" r:id="rId2"/>
     <sheet name="Monster" sheetId="1" r:id="rId3"/>
+    <sheet name="Magic" sheetId="11" r:id="rId4"/>
+    <sheet name="Item" sheetId="12" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="53">
   <si>
     <t>string</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -185,6 +187,80 @@
   <si>
     <t>크리%</t>
     <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>마나</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>mp</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Magic</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>운동형태</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>MovType</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Linear</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>마나소모</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>HpPotion</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>MpPotion</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>효과타입</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>affect</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>HpRegen</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>MpRegen</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>효력</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>프리팹이름</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>prefab</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Magic_FireBall</t>
+  </si>
+  <si>
+    <t>Magic_LightBall</t>
   </si>
 </sst>
 </file>
@@ -839,7 +915,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -893,6 +969,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1574,10 +1653,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AC6F769-DB9D-4549-9A9C-117157F18C59}">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="M7" activeCellId="1" sqref="I8 M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1589,12 +1668,13 @@
     <col min="5" max="5" width="6.3984375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.3984375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="5.3984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.8984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.5" customWidth="1"/>
+    <col min="9" max="10" width="5.3984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.8984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="19.2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -1603,17 +1683,18 @@
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-    </row>
-    <row r="2" spans="1:11" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+    </row>
+    <row r="2" spans="1:12" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1636,19 +1717,22 @@
         <v>14</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="19.2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:12" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A3" s="7" t="s">
         <v>5</v>
       </c>
@@ -1671,19 +1755,22 @@
         <v>9</v>
       </c>
       <c r="H3" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="J3" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="K3" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="L3" s="9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="19.2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:12" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
@@ -1717,8 +1804,11 @@
       <c r="K4" s="14" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="L4" s="14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1732,8 +1822,9 @@
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
-    </row>
-    <row r="6" spans="1:11" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:12" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="str">
         <f>B1&amp;"_"&amp;B6</f>
         <v>Hero_1</v>
@@ -1757,19 +1848,22 @@
         <v>20</v>
       </c>
       <c r="H6" s="4">
+        <v>100</v>
+      </c>
+      <c r="I6" s="4">
         <v>2</v>
       </c>
-      <c r="I6" s="4">
+      <c r="J6" s="4">
         <v>10</v>
       </c>
-      <c r="J6" s="4">
+      <c r="K6" s="4">
         <v>150</v>
       </c>
-      <c r="K6" s="17">
+      <c r="L6" s="17">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="19.2" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:12" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -1781,8 +1875,9 @@
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
-    </row>
-    <row r="8" spans="1:11" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="L7" s="4"/>
+    </row>
+    <row r="8" spans="1:12" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -1794,8 +1889,9 @@
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
-    </row>
-    <row r="9" spans="1:11" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="L8" s="4"/>
+    </row>
+    <row r="9" spans="1:12" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -1807,8 +1903,9 @@
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
-    </row>
-    <row r="10" spans="1:11" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="L9" s="4"/>
+    </row>
+    <row r="10" spans="1:12" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -1820,8 +1917,9 @@
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
-    </row>
-    <row r="11" spans="1:11" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="L10" s="4"/>
+    </row>
+    <row r="11" spans="1:12" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -1833,8 +1931,9 @@
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
-    </row>
-    <row r="12" spans="1:11" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="L11" s="4"/>
+    </row>
+    <row r="12" spans="1:12" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -1846,10 +1945,11 @@
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="E1:K1"/>
+    <mergeCell ref="E1:L1"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1862,7 +1962,7 @@
   <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.5" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1884,15 +1984,15 @@
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
     </row>
     <row r="2" spans="1:17" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
@@ -2293,4 +2393,348 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4492D65A-1164-430A-A011-32C09F946807}">
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="19.3984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.59765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+    </row>
+    <row r="2" spans="1:9" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="A3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="A4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="A6" s="3" t="str">
+        <f>$B$1&amp;"_"&amp;B6</f>
+        <v>Magic_1</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3" t="str">
+        <f>A6</f>
+        <v>Magic_1</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="4">
+        <v>50</v>
+      </c>
+      <c r="H6" s="4">
+        <v>10</v>
+      </c>
+      <c r="I6" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="A7" s="3" t="str">
+        <f>$B$1&amp;"_"&amp;B7</f>
+        <v>Magic_2</v>
+      </c>
+      <c r="B7" s="3">
+        <v>2</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3" t="str">
+        <f t="shared" ref="D7" si="0">A7</f>
+        <v>Magic_2</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="4">
+        <v>100</v>
+      </c>
+      <c r="H7" s="4">
+        <v>10</v>
+      </c>
+      <c r="I7" s="4">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F1:I1"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73268A4D-B6B8-4DEF-BCAC-C6E2BCF536AC}">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="19.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="A3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="A4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="A6" s="3" t="str">
+        <f>$B$1&amp;"_"&amp;B6</f>
+        <v>Item_1</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="A7" s="3" t="str">
+        <f>$B$1&amp;"_"&amp;B7</f>
+        <v>Item_2</v>
+      </c>
+      <c r="B7" s="3">
+        <v>2</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="4">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Assets/TableData/Tables.xlsx
+++ b/Assets/TableData/Tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\HumanWeapon\Assets\TableData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4C2F175-EF81-4C6D-8449-86D3E7FB84A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF81F1DF-070C-4679-993B-A489393F3C59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3840" yWindow="3840" windowWidth="23040" windowHeight="12204" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3840" yWindow="3840" windowWidth="23040" windowHeight="12204" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Define" sheetId="3" r:id="rId1"/>
@@ -1655,8 +1655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AC6F769-DB9D-4549-9A9C-117157F18C59}">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M7" activeCellId="1" sqref="I8 M7"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2399,8 +2399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4492D65A-1164-430A-A011-32C09F946807}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2549,7 +2549,7 @@
         <v>50</v>
       </c>
       <c r="H6" s="4">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I6" s="4">
         <v>20</v>
@@ -2580,10 +2580,10 @@
         <v>100</v>
       </c>
       <c r="H7" s="4">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I7" s="4">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
